--- a/ApolloQA/Data/RatingManual/GA/OR00009.BaseRateFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00009.BaseRateFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00009.BaseRateFactors" sheetId="1" r:id="Rb45060e0ab2a4013"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00009.BaseRateFactors" sheetId="1" r:id="R870109cee16c43c6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,128 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Base Rate Factor</x:v>
+        <x:v>Bodily Injury Limit Per Person</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Bodily Injury Limit Per Occurrence</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Property Damage Limit Per Occurrence</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>100.0000</x:v>
+        <x:v>$30,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.8712</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9371</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.1742</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.3560</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.4590</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5864</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.7668</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.0720</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
